--- a/doc/4.主备切换原理剖析.xlsx
+++ b/doc/4.主备切换原理剖析.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12180"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -402,13 +402,13 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>200025</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>219075</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -417,7 +417,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="200025" y="2686050"/>
+          <a:off x="200025" y="2714625"/>
           <a:ext cx="1390650" cy="476250"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -505,15 +505,23 @@
           </a:r>
           <a:r>
             <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>(FileSystemPersistenceEngine</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>、</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>ZookeeperPersistenceEngine)</a:t>
+            <a:t>(persistenceEngine--ZOOKEEPER,</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>FILESYSTEM</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>)</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
@@ -529,12 +537,36 @@
           </a:r>
           <a:r>
             <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>storedWorkers,storedDrivers</a:t>
+            <a:t>storedWorkers,storedDrivers.</a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" i="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>persistenceEngine</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>.readPersistedData()</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -544,14 +576,14 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>171449</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>66674</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>9526</xdr:rowOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -560,8 +592,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5657849" y="2609850"/>
-          <a:ext cx="1952625" cy="657226"/>
+          <a:off x="5657849" y="2181225"/>
+          <a:ext cx="1952625" cy="1533525"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -606,6 +638,119 @@
             <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
             <a:t>，有任何一个非空</a:t>
           </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>那么就会启动</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>master</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>恢复机制</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>RecoveryState.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" i="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>RECOVERING</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>（如果是</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>ZOOKEEPER</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>的持久化，那么每次在</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>leader</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>的选举后才会进行判断）</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -614,15 +759,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>504825</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>66674</xdr:rowOff>
+      <xdr:colOff>533399</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>257175</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>19049</xdr:rowOff>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -631,8 +776,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8048625" y="2638424"/>
-          <a:ext cx="2495550" cy="638175"/>
+          <a:off x="8077199" y="2486025"/>
+          <a:ext cx="3152776" cy="914400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -657,6 +802,22 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>调用</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>beginRecovery()</a:t>
+          </a:r>
           <a:r>
             <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
             <a:t>对</a:t>
@@ -692,13 +853,13 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>161924</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:rowOff>114299</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>161924</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -707,8 +868,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="161924" y="4743450"/>
-          <a:ext cx="2000251" cy="895350"/>
+          <a:off x="161924" y="4743449"/>
+          <a:ext cx="2000251" cy="1076325"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -759,7 +920,7 @@
           </a:r>
           <a:r>
             <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>然后向</a:t>
+            <a:t>然后向该</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
@@ -767,7 +928,7 @@
           </a:r>
           <a:r>
             <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>的</a:t>
+            <a:t>对应的</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
@@ -803,13 +964,13 @@
       <xdr:col>3</xdr:col>
       <xdr:colOff>352424</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>76199</xdr:rowOff>
+      <xdr:rowOff>142874</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>400050</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -818,7 +979,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2409824" y="4705349"/>
+          <a:off x="2409824" y="4772024"/>
           <a:ext cx="2105026" cy="1019176"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -845,6 +1006,18 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>理论上来说</a:t>
+          </a:r>
+          <a:r>
             <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
             <a:t>Driver</a:t>
           </a:r>
@@ -858,7 +1031,7 @@
           </a:r>
           <a:r>
             <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>，理论上来说，如果他们目前运行正常的话，那么在接收到</a:t>
+            <a:t>，如果目前运行正常的话，那么在接收到</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
@@ -882,14 +1055,14 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -898,8 +1071,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4800600" y="4676775"/>
-          <a:ext cx="2228850" cy="1076325"/>
+          <a:off x="4800600" y="4505325"/>
+          <a:ext cx="2228850" cy="1552575"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -968,6 +1141,35 @@
             <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
             <a:t>进行处理，过滤掉它们的信息</a:t>
           </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>receiveWithLogging()</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>方法中接收消息</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -978,13 +1180,13 @@
       <xdr:col>11</xdr:col>
       <xdr:colOff>85725</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>247650</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -993,7 +1195,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7629525" y="4762500"/>
+          <a:off x="7629525" y="4781550"/>
           <a:ext cx="2905125" cy="990600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1102,7 +1304,7 @@
       <xdr:col>2</xdr:col>
       <xdr:colOff>219075</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
@@ -1120,8 +1322,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1590675" y="2924175"/>
-          <a:ext cx="857250" cy="28575"/>
+          <a:off x="1590675" y="2952750"/>
+          <a:ext cx="857250" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1152,7 +1354,7 @@
       <xdr:col>7</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>23813</xdr:rowOff>
+      <xdr:rowOff>33338</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
@@ -1170,8 +1372,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="4953000" y="2938463"/>
-          <a:ext cx="704849" cy="14287"/>
+          <a:off x="4953000" y="2947988"/>
+          <a:ext cx="704849" cy="4762"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1202,13 +1404,13 @@
       <xdr:col>11</xdr:col>
       <xdr:colOff>66674</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>23813</xdr:rowOff>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>504825</xdr:colOff>
+      <xdr:colOff>533399</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>42862</xdr:rowOff>
+      <xdr:rowOff>33338</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1219,9 +1421,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7610474" y="2938463"/>
-          <a:ext cx="438151" cy="19049"/>
+        <a:xfrm flipV="1">
+          <a:off x="7610474" y="2943225"/>
+          <a:ext cx="466725" cy="4763"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1250,15 +1452,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>466725</xdr:colOff>
+      <xdr:colOff>495305</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>52387</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>19054</xdr:rowOff>
+      <xdr:rowOff>47629</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1269,8 +1471,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="5400000">
-          <a:off x="4881561" y="-452436"/>
-          <a:ext cx="685804" cy="8143875"/>
+          <a:off x="5122069" y="-540539"/>
+          <a:ext cx="590554" cy="8472482"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector2">
           <a:avLst/>
@@ -1304,7 +1506,7 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>476250</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:rowOff>114299</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1316,7 +1518,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1152525" y="3952875"/>
-          <a:ext cx="9525" cy="790575"/>
+          <a:ext cx="9525" cy="790574"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1347,13 +1549,13 @@
       <xdr:col>3</xdr:col>
       <xdr:colOff>104775</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:rowOff>138112</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>352424</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>71437</xdr:rowOff>
+      <xdr:rowOff>138112</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1365,8 +1567,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2162175" y="5191125"/>
-          <a:ext cx="247649" cy="23812"/>
+          <a:off x="2162175" y="5281612"/>
+          <a:ext cx="247649" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1397,13 +1599,13 @@
       <xdr:col>6</xdr:col>
       <xdr:colOff>400050</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>71437</xdr:rowOff>
+      <xdr:rowOff>138112</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>71438</xdr:rowOff>
+      <xdr:rowOff>138113</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1415,7 +1617,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4514850" y="5214937"/>
+          <a:off x="4514850" y="5281612"/>
           <a:ext cx="285750" cy="1"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -1447,13 +1649,13 @@
       <xdr:col>10</xdr:col>
       <xdr:colOff>171450</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>71438</xdr:rowOff>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>85725</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:rowOff>138113</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1464,9 +1666,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7029450" y="5214938"/>
-          <a:ext cx="600075" cy="42862"/>
+        <a:xfrm flipV="1">
+          <a:off x="7029450" y="5276850"/>
+          <a:ext cx="600075" cy="4763"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1503,7 +1705,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CCE8CF"/>
+        <a:sysClr val="window" lastClr="C7EDCC"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -1785,7 +1987,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R12" sqref="R12"/>
+      <selection activeCell="Q24" sqref="Q24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/doc/4.主备切换原理剖析.xlsx
+++ b/doc/4.主备切换原理剖析.xlsx
@@ -962,15 +962,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>352424</xdr:colOff>
+      <xdr:colOff>428624</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>142874</xdr:rowOff>
+      <xdr:rowOff>19049</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>400050</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -979,8 +979,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2409824" y="4772024"/>
-          <a:ext cx="2105026" cy="1019176"/>
+          <a:off x="2486024" y="4648199"/>
+          <a:ext cx="2105026" cy="1266826"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1043,7 +1043,23 @@
           </a:r>
           <a:r>
             <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>Master</a:t>
+            <a:t>Master(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>无响应那么前面修改的状态</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>UNKNOEN</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>不变</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>)</a:t>
           </a:r>
           <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
         </a:p>
@@ -1148,7 +1164,7 @@
           <a:r>
             <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
               <a:solidFill>
-                <a:schemeClr val="dk1"/>
+                <a:srgbClr val="FF0000"/>
               </a:solidFill>
               <a:effectLst/>
               <a:latin typeface="+mn-lt"/>
@@ -1160,7 +1176,7 @@
           <a:r>
             <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
               <a:solidFill>
-                <a:schemeClr val="dk1"/>
+                <a:srgbClr val="FF0000"/>
               </a:solidFill>
               <a:effectLst/>
               <a:latin typeface="+mn-lt"/>
@@ -1169,7 +1185,11 @@
             </a:rPr>
             <a:t>方法中接收消息</a:t>
           </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1553,7 +1573,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>352424</xdr:colOff>
+      <xdr:colOff>428624</xdr:colOff>
       <xdr:row>30</xdr:row>
       <xdr:rowOff>138112</xdr:rowOff>
     </xdr:to>
@@ -1568,7 +1588,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2162175" y="5281612"/>
-          <a:ext cx="247649" cy="0"/>
+          <a:ext cx="323849" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1597,7 +1617,7 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>400050</xdr:colOff>
+      <xdr:colOff>476250</xdr:colOff>
       <xdr:row>30</xdr:row>
       <xdr:rowOff>138112</xdr:rowOff>
     </xdr:from>
@@ -1617,8 +1637,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4514850" y="5281612"/>
-          <a:ext cx="285750" cy="1"/>
+          <a:off x="4591050" y="5281612"/>
+          <a:ext cx="209550" cy="1"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1987,7 +2007,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q24" sqref="Q24"/>
+      <selection activeCell="S29" sqref="S29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
